--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Artn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Artn-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,9 +82,6 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Artn</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,40 +540,40 @@
         <v>1.602144</v>
       </c>
       <c r="I2">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J2">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1058645</v>
+        <v>0.452919</v>
       </c>
       <c r="N2">
-        <v>0.211729</v>
+        <v>0.905838</v>
       </c>
       <c r="O2">
-        <v>0.009133991451461642</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P2">
-        <v>0.007982871865007578</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q2">
-        <v>0.05653672449599999</v>
+        <v>0.241880486112</v>
       </c>
       <c r="R2">
-        <v>0.339220346976</v>
+        <v>1.451282916672</v>
       </c>
       <c r="S2">
-        <v>0.004041292183356011</v>
+        <v>0.008545356878291841</v>
       </c>
       <c r="T2">
-        <v>0.004017146367302609</v>
+        <v>0.01013800806193509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +602,10 @@
         <v>1.602144</v>
       </c>
       <c r="I3">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J3">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.282732333333334</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N3">
-        <v>9.848197000000001</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O3">
-        <v>0.2832342198763835</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="P3">
-        <v>0.3713090542738691</v>
+        <v>0.3315066943791922</v>
       </c>
       <c r="Q3">
         <v>1.753136637152</v>
@@ -638,10 +632,10 @@
         <v>15.778229734368</v>
       </c>
       <c r="S3">
-        <v>0.1253156678466345</v>
+        <v>0.06193628292087773</v>
       </c>
       <c r="T3">
-        <v>0.1868504021793446</v>
+        <v>0.1102195984066963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +664,10 @@
         <v>1.602144</v>
       </c>
       <c r="I4">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J4">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,90 +676,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.141729999999999</v>
+        <v>9.476675</v>
       </c>
       <c r="N4">
-        <v>16.28346</v>
+        <v>18.95335</v>
       </c>
       <c r="O4">
-        <v>0.7024686483203414</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="P4">
-        <v>0.6139393975269154</v>
+        <v>0.638001291598032</v>
       </c>
       <c r="Q4">
-        <v>4.34807462304</v>
+        <v>5.0609993304</v>
       </c>
       <c r="R4">
-        <v>26.08844773824</v>
+        <v>30.3659959824</v>
       </c>
       <c r="S4">
-        <v>0.3108039976384447</v>
+        <v>0.1787992331842699</v>
       </c>
       <c r="T4">
-        <v>0.3089470133336356</v>
+        <v>0.2121231556864223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.534048</v>
+        <v>1.6083065</v>
       </c>
       <c r="H5">
-        <v>1.602144</v>
+        <v>3.216613</v>
       </c>
       <c r="I5">
-        <v>0.4424453651869046</v>
+        <v>0.7507191270165605</v>
       </c>
       <c r="J5">
-        <v>0.5032206999227333</v>
+        <v>0.6675192378449464</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05984166666666666</v>
+        <v>0.452919</v>
       </c>
       <c r="N5">
-        <v>0.179525</v>
+        <v>0.905838</v>
       </c>
       <c r="O5">
-        <v>0.005163140351813406</v>
+        <v>0.03428003430836644</v>
       </c>
       <c r="P5">
-        <v>0.006768676334207809</v>
+        <v>0.03049201402277582</v>
       </c>
       <c r="Q5">
-        <v>0.0319583224</v>
+        <v>0.7284325716735001</v>
       </c>
       <c r="R5">
-        <v>0.2876249016</v>
+        <v>2.913730286694</v>
       </c>
       <c r="S5">
-        <v>0.002284407518469326</v>
+        <v>0.02573467743007459</v>
       </c>
       <c r="T5">
-        <v>0.003406138042450494</v>
+        <v>0.02035400596084073</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4373315</v>
+        <v>1.6083065</v>
       </c>
       <c r="H6">
-        <v>0.874663</v>
+        <v>3.216613</v>
       </c>
       <c r="I6">
-        <v>0.3623181721965756</v>
+        <v>0.7507191270165605</v>
       </c>
       <c r="J6">
-        <v>0.274724698314582</v>
+        <v>0.6675192378449464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1058645</v>
+        <v>3.282732333333333</v>
       </c>
       <c r="N6">
-        <v>0.211729</v>
+        <v>9.848196999999999</v>
       </c>
       <c r="O6">
-        <v>0.009133991451461642</v>
+        <v>0.2484598283839946</v>
       </c>
       <c r="P6">
-        <v>0.007982871865007578</v>
+        <v>0.3315066943791922</v>
       </c>
       <c r="Q6">
-        <v>0.04629788058174999</v>
+        <v>5.279639749460166</v>
       </c>
       <c r="R6">
-        <v>0.185191522327</v>
+        <v>31.677838496761</v>
       </c>
       <c r="S6">
-        <v>0.003309411087552728</v>
+        <v>0.1865235454631169</v>
       </c>
       <c r="T6">
-        <v>0.002193092064798172</v>
+        <v>0.221287095972496</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +829,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4373315</v>
+        <v>1.6083065</v>
       </c>
       <c r="H7">
-        <v>0.874663</v>
+        <v>3.216613</v>
       </c>
       <c r="I7">
-        <v>0.3623181721965756</v>
+        <v>0.7507191270165605</v>
       </c>
       <c r="J7">
-        <v>0.274724698314582</v>
+        <v>0.6675192378449464</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.282732333333334</v>
+        <v>9.476675</v>
       </c>
       <c r="N7">
-        <v>9.848197000000001</v>
+        <v>18.95335</v>
       </c>
       <c r="O7">
-        <v>0.2832342198763835</v>
+        <v>0.7172601373076389</v>
       </c>
       <c r="P7">
-        <v>0.3713090542738691</v>
+        <v>0.638001291598032</v>
       </c>
       <c r="Q7">
-        <v>1.435642255435167</v>
+        <v>15.2413980008875</v>
       </c>
       <c r="R7">
-        <v>8.613853532611</v>
+        <v>60.96559200355001</v>
       </c>
       <c r="S7">
-        <v>0.1026209048491343</v>
+        <v>0.538460904123369</v>
       </c>
       <c r="T7">
-        <v>0.1020077679168615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.4373315</v>
-      </c>
-      <c r="H8">
-        <v>0.874663</v>
-      </c>
-      <c r="I8">
-        <v>0.3623181721965756</v>
-      </c>
-      <c r="J8">
-        <v>0.274724698314582</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>8.141729999999999</v>
-      </c>
-      <c r="N8">
-        <v>16.28346</v>
-      </c>
-      <c r="O8">
-        <v>0.7024686483203414</v>
-      </c>
-      <c r="P8">
-        <v>0.6139393975269154</v>
-      </c>
-      <c r="Q8">
-        <v>3.560634993494999</v>
-      </c>
-      <c r="R8">
-        <v>14.24253997398</v>
-      </c>
-      <c r="S8">
-        <v>0.2545171566848252</v>
-      </c>
-      <c r="T8">
-        <v>0.1686643157690181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.4373315</v>
-      </c>
-      <c r="H9">
-        <v>0.874663</v>
-      </c>
-      <c r="I9">
-        <v>0.3623181721965756</v>
-      </c>
-      <c r="J9">
-        <v>0.274724698314582</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.05984166666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.179525</v>
-      </c>
-      <c r="O9">
-        <v>0.005163140351813406</v>
-      </c>
-      <c r="P9">
-        <v>0.006768676334207809</v>
-      </c>
-      <c r="Q9">
-        <v>0.02617064584583333</v>
-      </c>
-      <c r="R9">
-        <v>0.157023875075</v>
-      </c>
-      <c r="S9">
-        <v>0.001870699575063417</v>
-      </c>
-      <c r="T9">
-        <v>0.001859522563904291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.706973</v>
-      </c>
-      <c r="I10">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J10">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.1058645</v>
-      </c>
-      <c r="N10">
-        <v>0.211729</v>
-      </c>
-      <c r="O10">
-        <v>0.009133991451461642</v>
-      </c>
-      <c r="P10">
-        <v>0.007982871865007578</v>
-      </c>
-      <c r="Q10">
-        <v>0.02494778105283333</v>
-      </c>
-      <c r="R10">
-        <v>0.149686686317</v>
-      </c>
-      <c r="S10">
-        <v>0.001783288180552902</v>
-      </c>
-      <c r="T10">
-        <v>0.001772633432906797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.706973</v>
-      </c>
-      <c r="I11">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J11">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.282732333333334</v>
-      </c>
-      <c r="N11">
-        <v>9.848197000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.2832342198763835</v>
-      </c>
-      <c r="P11">
-        <v>0.3713090542738691</v>
-      </c>
-      <c r="Q11">
-        <v>0.7736010419645556</v>
-      </c>
-      <c r="R11">
-        <v>6.962409377681</v>
-      </c>
-      <c r="S11">
-        <v>0.0552976471806147</v>
-      </c>
-      <c r="T11">
-        <v>0.08245088417766305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.706973</v>
-      </c>
-      <c r="I12">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J12">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>8.141729999999999</v>
-      </c>
-      <c r="N12">
-        <v>16.28346</v>
-      </c>
-      <c r="O12">
-        <v>0.7024686483203414</v>
-      </c>
-      <c r="P12">
-        <v>0.6139393975269154</v>
-      </c>
-      <c r="Q12">
-        <v>1.91866109443</v>
-      </c>
-      <c r="R12">
-        <v>11.51196656658</v>
-      </c>
-      <c r="S12">
-        <v>0.1371474939970715</v>
-      </c>
-      <c r="T12">
-        <v>0.1363280684242617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.706973</v>
-      </c>
-      <c r="I13">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J13">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.05984166666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.179525</v>
-      </c>
-      <c r="O13">
-        <v>0.005163140351813406</v>
-      </c>
-      <c r="P13">
-        <v>0.006768676334207809</v>
-      </c>
-      <c r="Q13">
-        <v>0.01410214753611111</v>
-      </c>
-      <c r="R13">
-        <v>0.126919327825</v>
-      </c>
-      <c r="S13">
-        <v>0.001008033258280663</v>
-      </c>
-      <c r="T13">
-        <v>0.001503015727853023</v>
+        <v>0.4258781359116097</v>
       </c>
     </row>
   </sheetData>
